--- a/biology/Médecine/Récepteur_de_la_ryanodine/Récepteur_de_la_ryanodine.xlsx
+++ b/biology/Médecine/Récepteur_de_la_ryanodine/Récepteur_de_la_ryanodine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_ryanodine</t>
+          <t>Récepteur_de_la_ryanodine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récepteurs de la ryanodine RyR constituent une classe de canaux calciques dans diverses formes de muscles. Ce sont des homotétramères[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs de la ryanodine RyR constituent une classe de canaux calciques dans diverses formes de muscles. Ce sont des homotétramères
 , formés de 4 sous-unités identiques, insérées dans la membrane du réticulum sarcoplasmique. Chaque monomère comporte 4 hélices transmembranaires qui entourent un canal permettant la sortie des ions calcium Ca2+ de la lumière du réticulum vers le cytoplasme.
 Leur ouverture est déclenchée par des concentrations micromolaires d'ions calcium ou par la ryanodine (mais inhibitrice à forte dose) ou la caféine.
 Trois isoformes ont été identifiées et leurs gènes clonés :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_ryanodine</t>
+          <t>Récepteur_de_la_ryanodine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'ion calcium est le principal modulateur endogène du récepteur de la ryanodine. En effet, sans calcium, ce récepteur ne peut pas avoir son effet maximal voire ne peut pas être activé.
 L'activation des récepteurs de la ryanodine entraîne la sortie d'ion calcium du réticulum sarcoplasmique, étape essentielle dans la contraction musculaire.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_ryanodine</t>
+          <t>Récepteur_de_la_ryanodine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +570,12 @@
           <t>Rôle dans les maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les mutations sur le RYR1 sont associées à l'hyperthermie maligne et à la myopathie congénitale à cores centraux
-Les mutations sur le RYR2 jouent un rôle dans la tachycardie ventriculaire polymorphe catécholergique (forme d'arythmie cardiaque induite par le stress) et dans la dysplasie ventriculaire droite arythmogène. Elles pourraient également favoriser l'apparition d'une insuffisance cardiaque et la stabilisation de ce récepteur est une voie de recherche dans le traitement de cette dernière[2].
+Les mutations sur le RYR2 jouent un rôle dans la tachycardie ventriculaire polymorphe catécholergique (forme d'arythmie cardiaque induite par le stress) et dans la dysplasie ventriculaire droite arythmogène. Elles pourraient également favoriser l'apparition d'une insuffisance cardiaque et la stabilisation de ce récepteur est une voie de recherche dans le traitement de cette dernière.
 Aucune maladie n'a pu être associée à des mutations sur le RYR3.</t>
         </is>
       </c>
